--- a/excelTemplate/VendorTemplate.xlsx
+++ b/excelTemplate/VendorTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>S/N</t>
   </si>
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>Swift Code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Address</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.vendor_bank_address%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -715,11 +723,11 @@
     <col min="5" max="5" width="18.375" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.125" style="13" customWidth="1"/>
-    <col min="8" max="9" width="26.5" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="13"/>
+    <col min="8" max="10" width="26.5" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -745,10 +753,13 @@
         <v>38</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -774,6 +785,9 @@
         <v>35</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>36</v>
       </c>
     </row>
